--- a/Subgroup A Python Codes/uss_survey_responses.xlsx
+++ b/Subgroup A Python Codes/uss_survey_responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCA6D20-2B5F-4168-96BC-7AEDEA13BCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06FBDD05-5033-4FA6-9F00-3846363E06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6137,9 +6137,9 @@
   </sheetPr>
   <dimension ref="A1:BE506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI120" sqref="AI120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -26821,7 +26821,9 @@
       <c r="AG121" s="8">
         <v>1</v>
       </c>
-      <c r="AH121" s="8"/>
+      <c r="AH121" s="8">
+        <v>1</v>
+      </c>
       <c r="AI121" s="8">
         <v>1</v>
       </c>
